--- a/database/Suggestion.xlsx
+++ b/database/Suggestion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>现货变化</t>
   </si>
@@ -28,13 +28,25 @@
     <t>180极限</t>
   </si>
   <si>
-    <t>基差*极限</t>
-  </si>
-  <si>
-    <t>铝</t>
-  </si>
-  <si>
-    <t>1804</t>
+    <t>顶/底指标（基差*极限）</t>
+  </si>
+  <si>
+    <t>镍</t>
+  </si>
+  <si>
+    <t>锡</t>
+  </si>
+  <si>
+    <t>PTA</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1809</t>
   </si>
 </sst>
 </file>
@@ -392,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,19 +432,59 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.802451333813987</v>
+        <v>2.016546018614271</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>98920</v>
+      </c>
+      <c r="E2">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="F2">
+        <v>-0.03909926869886322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>14385</v>
-      </c>
-      <c r="E2">
-        <v>0.3868613138686132</v>
-      </c>
-      <c r="F2">
-        <v>-0.7260499162548335</v>
+      <c r="B3">
+        <v>0.351493848857645</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>142890</v>
+      </c>
+      <c r="E3">
+        <v>0.05185185185185185</v>
+      </c>
+      <c r="F3">
+        <v>-0.005085295453071285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.5599637681159394</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>5432</v>
+      </c>
+      <c r="E4">
+        <v>0.2668297280315947</v>
+      </c>
+      <c r="F4">
+        <v>0.5715949810073824</v>
       </c>
     </row>
   </sheetData>
